--- a/TestData/ArcTest.xlsx
+++ b/TestData/ArcTest.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1053">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3230,6 +3230,9 @@
   </si>
   <si>
     <t>USBuilding 12:36:15</t>
+  </si>
+  <si>
+    <t>USBuilding 17:23:08</t>
   </si>
 </sst>
 </file>
@@ -11554,7 +11557,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>193</v>

--- a/TestData/ArcTest.xlsx
+++ b/TestData/ArcTest.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="1057">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3233,6 +3233,18 @@
   </si>
   <si>
     <t>USBuilding 17:23:08</t>
+  </si>
+  <si>
+    <t>USBuilding 23:34:36</t>
+  </si>
+  <si>
+    <t>USBuilding 23:48:02</t>
+  </si>
+  <si>
+    <t>USBuilding 10:47:23</t>
+  </si>
+  <si>
+    <t>USBuilding 12:25:11</t>
   </si>
 </sst>
 </file>
@@ -11557,7 +11569,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>193</v>

--- a/TestData/ArcTest.xlsx
+++ b/TestData/ArcTest.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1059">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3245,6 +3245,12 @@
   </si>
   <si>
     <t>USBuilding 12:25:11</t>
+  </si>
+  <si>
+    <t>USBuilding 14:38:19</t>
+  </si>
+  <si>
+    <t>USBuilding 14:42:52</t>
   </si>
 </sst>
 </file>
@@ -11569,7 +11575,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>193</v>

--- a/TestData/ArcTest.xlsx
+++ b/TestData/ArcTest.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="1060">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3251,6 +3251,9 @@
   </si>
   <si>
     <t>USBuilding 14:42:52</t>
+  </si>
+  <si>
+    <t>USBuilding 19:59:37</t>
   </si>
 </sst>
 </file>
@@ -11575,7 +11578,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>193</v>

--- a/TestData/ArcTest.xlsx
+++ b/TestData/ArcTest.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="1062">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3254,6 +3254,12 @@
   </si>
   <si>
     <t>USBuilding 19:59:37</t>
+  </si>
+  <si>
+    <t>USBuilding 21:14:14</t>
+  </si>
+  <si>
+    <t>USBuilding 21:21:30</t>
   </si>
 </sst>
 </file>
@@ -11578,7 +11584,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>193</v>

--- a/TestData/ArcTest.xlsx
+++ b/TestData/ArcTest.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="1065">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3260,6 +3260,15 @@
   </si>
   <si>
     <t>USBuilding 21:21:30</t>
+  </si>
+  <si>
+    <t>USBuilding 11:14:11</t>
+  </si>
+  <si>
+    <t>USBuilding 12:15:50</t>
+  </si>
+  <si>
+    <t>USBuilding 12:19:21</t>
   </si>
 </sst>
 </file>
@@ -11584,7 +11593,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>193</v>
